--- a/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(完了)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD111AC-39ED-4E10-94FE-E3E07E97B9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7E579-FF4D-4F9F-9950-BBFFB4FC7D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>作成者</t>
   </si>
@@ -247,6 +247,57 @@
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ギホウ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fullness Stationery社 文具/雑貨販売システム</t>
+    <rPh sb="19" eb="20">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録（完了）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -535,7 +586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,59 +633,17 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -660,13 +669,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,8 +690,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1034,7 +1088,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1045,103 +1099,116 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10">
+        <v>45496</v>
+      </c>
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:17" ht="39" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1150,20 +1217,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1173,112 +1240,112 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
@@ -1287,35 +1354,33 @@
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -1332,11 +1397,13 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7E579-FF4D-4F9F-9950-BBFFB4FC7D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68308BA0-A6B2-4A85-952C-316E036870BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -169,70 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーが発生しました。</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」と表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」を押下</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前の画面へ遷移すること</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前条件</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ジゼンジョウケン </t>
@@ -298,6 +227,447 @@
   <si>
     <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
 ・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録（完了）画面」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録（完了）」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ　スポーツ用品を登録しました。」
+と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「入力に戻る」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「業務終了」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「業務終了」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「入力に戻る」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前のメニュー画面に遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録（入力）画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・商品カテゴリ登録（確認）画面で商品カテゴリ名「スポーツ用品」が確認されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -371,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -580,13 +950,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,107 +1021,152 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1085,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1105,56 +1538,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1167,48 +1600,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
+      <c r="A3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="A4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1217,20 +1652,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1240,154 +1675,597 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="32"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" ht="11">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" ht="11">
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="C8" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" ht="50" customHeight="1">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17" ht="44" customHeight="1">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+    </row>
+    <row r="22" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+    </row>
+    <row r="23" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+    </row>
+    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+    </row>
+    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+  <mergeCells count="58">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -1397,13 +2275,11 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
